--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.98</v>
+        <v>1.51</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15/07/2023 17:25</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.03</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15/07/2023 17:25</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.3</v>
+        <v>5.72</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.2</v>
+        <v>5.45</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>15/07/2023 17:08</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-montana/rBd6jkva/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-litex-lovech/AcbbhB9n/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>1.98</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.13</v>
+        <v>2.1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15/07/2023 17:29</t>
+          <t>15/07/2023 17:25</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.94</v>
+        <v>3.17</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>15/07/2023 17:29</t>
+          <t>15/07/2023 17:25</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>15/07/2023 17:29</t>
+          <t>15/07/2023 17:08</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-yantra-gabrovo/OWfywW9a/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-montana/rBd6jkva/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.02</v>
+        <v>3.13</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>2.63</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-yantra-gabrovo/OWfywW9a/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.51</v>
+        <v>1.79</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:26</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:27</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.72</v>
+        <v>3.54</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>5.45</v>
+        <v>6.24</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:27</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-litex-lovech/AcbbhB9n/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-spartak-pleven/SOihZm9O/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.79</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>3.02</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/07/2023 17:26</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/07/2023 17:27</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.54</v>
+        <v>2.18</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.24</v>
+        <v>2.21</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/07/2023 17:27</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-spartak-pleven/SOihZm9O/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.39</v>
+        <v>2.01</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.48</v>
+        <v>3.21</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.69</v>
+        <v>3.78</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Litex Lovech</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.01</v>
+        <v>2.39</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.21</v>
+        <v>2.48</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.78</v>
+        <v>2.69</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:03</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.96</v>
+        <v>3.07</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.09</v>
+        <v>3.69</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.22</v>
+        <v>3.65</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.42</v>
+        <v>3.16</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:03</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.07</v>
+        <v>3.96</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.69</v>
+        <v>4.09</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.65</v>
+        <v>5.22</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.16</v>
+        <v>6.42</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>2.89</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.24</v>
+        <v>3.01</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.58</v>
+        <v>3.1</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.19</v>
+        <v>3.68</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Dunav Ruse</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.09</v>
+        <v>4.85</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.99</v>
+        <v>4.66</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.89</v>
+        <v>3.32</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.01</v>
+        <v>3.57</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.1</v>
+        <v>1.58</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.68</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.85</v>
+        <v>1.37</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.66</v>
+        <v>1.24</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:24</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.32</v>
+        <v>4.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.57</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.58</v>
+        <v>6.75</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.64</v>
+        <v>10.35</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Chernomorets Balchik</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:24</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.06</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>3.24</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>6.75</v>
+        <v>4.58</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>10.35</v>
+        <v>4.19</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.36</v>
+        <v>2.92</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.09</v>
+        <v>2.94</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.73</v>
+        <v>3.01</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,32 +4660,32 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.87</v>
+        <v>3.11</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
+          <t>20/08/2023 16:39</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>19/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
           <t>20/08/2023 16:40</t>
         </is>
       </c>
-      <c r="R46" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>19/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>20/08/2023 16:40</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.82</v>
+        <v>1.73</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.51</v>
+        <v>1.61</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.87</v>
+        <v>3.07</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.16</v>
+        <v>3.47</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>20/08/2023 16:56</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>4.23</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.56</v>
+        <v>4.73</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-montana/6qI7ftOB/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.94</v>
+        <v>2.47</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.11</v>
+        <v>3.31</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>20/08/2023 16:39</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Spartak Varna</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>3.97</v>
+        <v>2.82</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4.29</v>
+        <v>2.51</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.14</v>
+        <v>2.87</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.3</v>
+        <v>3.16</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:56</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-montana/6qI7ftOB/</t>
         </is>
       </c>
     </row>
@@ -4989,46 +4989,46 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Maritsa Plovdiv</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.48</v>
+        <v>3.97</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.47</v>
+        <v>4.29</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.93</v>
+        <v>3.14</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,24 +5036,24 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.49</v>
+        <v>1.74</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1.73</v>
+        <v>2.36</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.61</v>
+        <v>3.09</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.07</v>
+        <v>2.73</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.47</v>
+        <v>2.87</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.23</v>
+        <v>2.81</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.73</v>
+        <v>2.31</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.63</v>
+        <v>1.81</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.52</v>
+        <v>3.76</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.81</v>
+        <v>5.25</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.67</v>
+        <v>3.9</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.11</v>
+        <v>3.64</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.42</v>
+        <v>4.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:34</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.76</v>
+        <v>1.46</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.68</v>
+        <v>1.63</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.64</v>
+        <v>2.7</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:34</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.63</v>
+        <v>3.02</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Spartak Pleven</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.55</v>
+        <v>3.17</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.61</v>
+        <v>2.61</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.54</v>
+        <v>2.89</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.49</v>
+        <v>2.98</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.49</v>
+        <v>2.06</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.09</v>
+        <v>2.6</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.56</v>
+        <v>1.55</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.02</v>
+        <v>1.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.73</v>
+        <v>3.54</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.66</v>
+        <v>3.49</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.63</v>
+        <v>4.49</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.52</v>
+        <v>4.09</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.27</v>
+        <v>2.56</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.2</v>
+        <v>3.02</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.38</v>
+        <v>2.73</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>5.25</v>
+        <v>2.66</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>7.61</v>
+        <v>2.63</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>13.6</v>
+        <v>2.52</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3.17</v>
+        <v>1.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.61</v>
+        <v>1.2</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.89</v>
+        <v>4.38</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.98</v>
+        <v>5.25</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.06</v>
+        <v>7.61</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.6</v>
+        <v>13.6</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,374 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-marek/pAkPPOJD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45196.66666666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>26/09/2023 03:11</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>27/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>26/09/2023 03:11</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>27/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>26/09/2023 03:11</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>27/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-cska-1948-sofia/Sf2GTRyn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45196.66666666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>26/09/2023 03:11</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:04</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>26/09/2023 03:11</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>27/09/2023 15:33</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>26/09/2023 03:11</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:04</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-belasitsa-petrich/8pnsFSMh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45196.70833333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>26/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>27/09/2023 10:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>26/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>27/09/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>26/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>27/09/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-bdin-vidin/j9ynEnxa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45196.72916666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>26/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:17</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>26/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:15</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>26/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:17</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-chernomorets-1919/xQZgCQ6B/</t>
         </is>
       </c>
     </row>
